--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2934814.268265782</v>
+        <v>2933979.945850394</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5736895.963613646</v>
+        <v>5736895.963613641</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169739.126259458</v>
+        <v>1169739.126259459</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>225.1451279478502</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
@@ -673,13 +673,13 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>84.62560901147531</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>101.8416773654823</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>72.18456235980098</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -876,7 +876,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -904,10 +904,10 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -916,7 +916,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>143.2426778736173</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0.09896938461825357</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138.9000023092308</v>
+        <v>138.9000023092309</v>
       </c>
       <c r="C6" t="n">
         <v>132.6551205385437</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>71.41360459648531</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>203.6335957072437</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>76.33211384749276</v>
       </c>
       <c r="I8" t="n">
-        <v>84.91595148012919</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>108.8867407388747</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -1308,7 +1308,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>53.24914155059258</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.620026141506</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C11" t="n">
         <v>376.5244030535246</v>
       </c>
       <c r="D11" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E11" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F11" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G11" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975964</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275031</v>
       </c>
       <c r="T11" t="n">
         <v>190.4854774862718</v>
       </c>
       <c r="U11" t="n">
-        <v>224.9909450967471</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V11" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W11" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X11" t="n">
-        <v>367.1380221263991</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="12">
@@ -1536,19 +1536,19 @@
         <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>20.18089223433615</v>
       </c>
       <c r="F13" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>118.61243891626</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037917</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501641</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U13" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
-        <v>73.15209457355677</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D14" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E14" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F14" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G14" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975964</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>104.4293227275022</v>
       </c>
       <c r="T14" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862723</v>
       </c>
       <c r="U14" t="n">
-        <v>224.9909450967471</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V14" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W14" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X14" t="n">
-        <v>367.1380221263991</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y14" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.33641597856639</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
-        <v>118.61243891626</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037917</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501641</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T16" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U16" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>246.7800261198764</v>
+        <v>4.972054598301122</v>
       </c>
       <c r="X16" t="n">
         <v>206.4614817925755</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="17">
@@ -1849,22 +1849,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D17" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E17" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F17" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G17" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975964</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U17" t="n">
-        <v>224.9909450967471</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V17" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W17" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X17" t="n">
-        <v>367.1380221263991</v>
+        <v>367.1380221263995</v>
       </c>
       <c r="Y17" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="18">
@@ -2004,22 +2004,22 @@
         <v>156.323767603766</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>128.4007565039811</v>
+        <v>8.888331548816723</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540258</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>136.0789454373741</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H19" t="n">
-        <v>118.61243891626</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S19" t="n">
-        <v>63.91297007895473</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U19" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V19" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>246.7800261198764</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415074</v>
       </c>
       <c r="C20" t="n">
         <v>376.5244030535246</v>
       </c>
       <c r="D20" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E20" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F20" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G20" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975964</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U20" t="n">
-        <v>224.9909450967471</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V20" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W20" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X20" t="n">
-        <v>367.1380221263991</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y20" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="21">
@@ -2241,25 +2241,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
-        <v>119.6521165699795</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4007565039811</v>
+        <v>80.40376527501141</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
-        <v>136.0789454373741</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H22" t="n">
-        <v>118.61243891626</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037917</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501641</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W22" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
-        <v>128.7119427611408</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>155.0289087125508</v>
@@ -2535,16 +2535,16 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925755</v>
+        <v>39.38543635790646</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.4479524106874</v>
+        <v>390.4479524106875</v>
       </c>
       <c r="C26" t="n">
-        <v>390.3523293227054</v>
+        <v>301.1906842816751</v>
       </c>
       <c r="D26" t="n">
-        <v>384.7482751507129</v>
+        <v>384.748275150713</v>
       </c>
       <c r="E26" t="n">
-        <v>394.5257978711151</v>
+        <v>394.5257978711152</v>
       </c>
       <c r="F26" t="n">
-        <v>401.1490924686921</v>
+        <v>401.1490924686922</v>
       </c>
       <c r="G26" t="n">
-        <v>388.9699858089389</v>
+        <v>388.969985808939</v>
       </c>
       <c r="H26" t="n">
-        <v>292.128396941402</v>
+        <v>292.1283969414021</v>
       </c>
       <c r="I26" t="n">
-        <v>69.8172295989404</v>
+        <v>69.81722959894049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>118.257248996683</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>204.3134037554526</v>
+        <v>204.3134037554527</v>
       </c>
       <c r="U26" t="n">
-        <v>238.8188713659278</v>
+        <v>238.8188713659279</v>
       </c>
       <c r="V26" t="n">
-        <v>330.6681636597269</v>
+        <v>330.668163659727</v>
       </c>
       <c r="W26" t="n">
-        <v>156.8327883613131</v>
+        <v>364.251682399026</v>
       </c>
       <c r="X26" t="n">
-        <v>380.9659483955798</v>
+        <v>380.9659483955799</v>
       </c>
       <c r="Y26" t="n">
-        <v>381.2562908642336</v>
+        <v>381.2562908642337</v>
       </c>
     </row>
     <row r="27">
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D28" t="n">
-        <v>142.2286827731619</v>
+        <v>142.228682773162</v>
       </c>
       <c r="E28" t="n">
-        <v>143.6306915232065</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>99.51156997955994</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>68.74897568419718</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.8568349817318</v>
       </c>
       <c r="T28" t="n">
-        <v>221.4822361759077</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>264.2991505221799</v>
+        <v>264.29915052218</v>
       </c>
       <c r="V28" t="n">
-        <v>255.4758721527161</v>
+        <v>255.4758721527162</v>
       </c>
       <c r="W28" t="n">
-        <v>221.3116187784343</v>
+        <v>77.98570856150488</v>
       </c>
       <c r="X28" t="n">
-        <v>220.2894080617563</v>
+        <v>220.2894080617564</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>206.8173261679659</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.4479524106874</v>
+        <v>390.4479524106875</v>
       </c>
       <c r="C29" t="n">
-        <v>390.3523293227054</v>
+        <v>390.3523293227055</v>
       </c>
       <c r="D29" t="n">
-        <v>384.7482751507129</v>
+        <v>384.748275150713</v>
       </c>
       <c r="E29" t="n">
-        <v>394.5257978711151</v>
+        <v>394.5257978711152</v>
       </c>
       <c r="F29" t="n">
-        <v>401.1490924686921</v>
+        <v>401.1490924686922</v>
       </c>
       <c r="G29" t="n">
-        <v>388.9699858089389</v>
+        <v>388.969985808939</v>
       </c>
       <c r="H29" t="n">
-        <v>292.128396941402</v>
+        <v>292.1283969414021</v>
       </c>
       <c r="I29" t="n">
-        <v>66.71173931668015</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>118.257248996683</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>204.3134037554527</v>
       </c>
       <c r="U29" t="n">
-        <v>238.8188713659278</v>
+        <v>238.8188713659279</v>
       </c>
       <c r="V29" t="n">
-        <v>330.6681636597269</v>
+        <v>311.3237482176369</v>
       </c>
       <c r="W29" t="n">
-        <v>364.2516823990259</v>
+        <v>364.251682399026</v>
       </c>
       <c r="X29" t="n">
-        <v>380.9659483955798</v>
+        <v>380.9659483955799</v>
       </c>
       <c r="Y29" t="n">
-        <v>381.2562908642336</v>
+        <v>381.2562908642337</v>
       </c>
     </row>
     <row r="30">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>170.1516938729468</v>
+        <v>170.1516938729469</v>
       </c>
       <c r="C31" t="n">
-        <v>153.7114232567435</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>142.2286827731619</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>149.9068717065548</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>99.51156997956002</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.74897568419718</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.8568349817317</v>
+        <v>168.8568349817318</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.4822361759078</v>
       </c>
       <c r="U31" t="n">
-        <v>264.2991505221799</v>
+        <v>264.29915052218</v>
       </c>
       <c r="V31" t="n">
-        <v>255.4758721527161</v>
+        <v>255.4758721527162</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>236.9114399043193</v>
       </c>
       <c r="X31" t="n">
-        <v>56.78137453292243</v>
+        <v>220.2894080617564</v>
       </c>
       <c r="Y31" t="n">
-        <v>206.8173261679657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.4479524106874</v>
+        <v>390.4479524106875</v>
       </c>
       <c r="C32" t="n">
-        <v>390.3523293227054</v>
+        <v>390.3523293227055</v>
       </c>
       <c r="D32" t="n">
-        <v>177.3293811130001</v>
+        <v>365.4038597086231</v>
       </c>
       <c r="E32" t="n">
-        <v>394.5257978711151</v>
+        <v>394.5257978711152</v>
       </c>
       <c r="F32" t="n">
-        <v>401.1490924686921</v>
+        <v>401.1490924686922</v>
       </c>
       <c r="G32" t="n">
-        <v>388.9699858089389</v>
+        <v>388.969985808939</v>
       </c>
       <c r="H32" t="n">
-        <v>292.128396941402</v>
+        <v>292.1283969414021</v>
       </c>
       <c r="I32" t="n">
-        <v>69.81722959894039</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>118.257248996683</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>204.3134037554526</v>
+        <v>204.3134037554527</v>
       </c>
       <c r="U32" t="n">
-        <v>238.8188713659278</v>
+        <v>238.8188713659279</v>
       </c>
       <c r="V32" t="n">
-        <v>330.6681636597269</v>
+        <v>330.668163659727</v>
       </c>
       <c r="W32" t="n">
-        <v>364.2516823990259</v>
+        <v>364.251682399026</v>
       </c>
       <c r="X32" t="n">
-        <v>380.9659483955798</v>
+        <v>380.9659483955799</v>
       </c>
       <c r="Y32" t="n">
-        <v>381.2562908642336</v>
+        <v>381.2562908642337</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>170.1516938729468</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>153.7114232567435</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>142.228682773162</v>
       </c>
       <c r="E34" t="n">
-        <v>143.6306915232065</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G34" t="n">
-        <v>149.9068717065548</v>
+        <v>149.9068717065549</v>
       </c>
       <c r="H34" t="n">
-        <v>132.4403651854407</v>
+        <v>132.4403651854408</v>
       </c>
       <c r="I34" t="n">
-        <v>99.51156997955992</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.74897568419716</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.8568349817318</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>59.93762219168923</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>255.4758721527161</v>
+        <v>255.4758721527162</v>
       </c>
       <c r="W34" t="n">
-        <v>260.6079523890572</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>202.7927899006955</v>
+        <v>220.2894080617564</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>206.8173261679659</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.4479524106874</v>
+        <v>390.4479524106875</v>
       </c>
       <c r="C35" t="n">
-        <v>390.3523293227054</v>
+        <v>390.3523293227055</v>
       </c>
       <c r="D35" t="n">
-        <v>384.7482751507129</v>
+        <v>295.5866301096825</v>
       </c>
       <c r="E35" t="n">
-        <v>394.5257978711151</v>
+        <v>394.5257978711152</v>
       </c>
       <c r="F35" t="n">
-        <v>401.1490924686921</v>
+        <v>401.1490924686922</v>
       </c>
       <c r="G35" t="n">
-        <v>388.9699858089389</v>
+        <v>388.969985808939</v>
       </c>
       <c r="H35" t="n">
-        <v>292.128396941402</v>
+        <v>292.1283969414021</v>
       </c>
       <c r="I35" t="n">
-        <v>69.81722959894039</v>
+        <v>69.81722959894049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>118.257248996683</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>204.3134037554526</v>
+        <v>204.3134037554527</v>
       </c>
       <c r="U35" t="n">
-        <v>238.8188713659278</v>
+        <v>238.8188713659279</v>
       </c>
       <c r="V35" t="n">
-        <v>123.2492696220139</v>
+        <v>330.668163659727</v>
       </c>
       <c r="W35" t="n">
-        <v>364.2516823990259</v>
+        <v>364.251682399026</v>
       </c>
       <c r="X35" t="n">
-        <v>380.9659483955798</v>
+        <v>380.9659483955799</v>
       </c>
       <c r="Y35" t="n">
-        <v>381.2562908642336</v>
+        <v>381.2562908642337</v>
       </c>
     </row>
     <row r="36">
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>153.7114232567435</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D37" t="n">
-        <v>142.2286827731619</v>
+        <v>142.228682773162</v>
       </c>
       <c r="E37" t="n">
-        <v>143.6306915232065</v>
+        <v>143.6306915232067</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>149.9068717065548</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>99.51156997955992</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.8568349817317</v>
+        <v>168.8568349817318</v>
       </c>
       <c r="T37" t="n">
-        <v>221.4822361759077</v>
+        <v>85.36001434477852</v>
       </c>
       <c r="U37" t="n">
-        <v>264.2991505221799</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>255.4758721527161</v>
+        <v>255.4758721527162</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>260.6079523890573</v>
       </c>
       <c r="X37" t="n">
-        <v>37.87487257935762</v>
+        <v>220.2894080617564</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>206.8173261679659</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.4479524106874</v>
+        <v>390.4479524106875</v>
       </c>
       <c r="C38" t="n">
-        <v>390.3523293227054</v>
+        <v>390.3523293227055</v>
       </c>
       <c r="D38" t="n">
-        <v>384.7482751507129</v>
+        <v>384.748275150713</v>
       </c>
       <c r="E38" t="n">
-        <v>394.5257978711151</v>
+        <v>394.5257978711152</v>
       </c>
       <c r="F38" t="n">
         <v>401.1490924686922</v>
@@ -3523,7 +3523,7 @@
         <v>292.1283969414021</v>
       </c>
       <c r="I38" t="n">
-        <v>69.81722959894046</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>118.257248996683</v>
+        <v>118.2572489966831</v>
       </c>
       <c r="T38" t="n">
-        <v>204.3134037554526</v>
+        <v>66.71173931667924</v>
       </c>
       <c r="U38" t="n">
         <v>238.8188713659279</v>
@@ -3565,7 +3565,7 @@
         <v>330.668163659727</v>
       </c>
       <c r="W38" t="n">
-        <v>156.8327883613131</v>
+        <v>364.251682399026</v>
       </c>
       <c r="X38" t="n">
         <v>380.9659483955799</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>170.1516938729468</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>153.7114232567435</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>142.2286827731619</v>
+        <v>142.228682773162</v>
       </c>
       <c r="E40" t="n">
-        <v>143.6306915232066</v>
+        <v>143.6306915232067</v>
       </c>
       <c r="F40" t="n">
-        <v>147.3137991733575</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>149.9068717065549</v>
       </c>
       <c r="H40" t="n">
-        <v>132.4403651854408</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>99.51156997955999</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.8568349817318</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.4822361759078</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>128.2902821081167</v>
       </c>
       <c r="V40" t="n">
-        <v>70.97637395042511</v>
+        <v>255.4758721527162</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>220.2894080617563</v>
+        <v>220.2894080617564</v>
       </c>
       <c r="Y40" t="n">
-        <v>206.8173261679658</v>
+        <v>206.8173261679659</v>
       </c>
     </row>
     <row r="41">
@@ -3751,13 +3751,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>367.6236394854355</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
@@ -3802,7 +3802,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>156.8550814710507</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3900,22 +3900,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>54.68688746169129</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>75.90002584610514</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3994,7 +3994,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>265.7345771113586</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>97.46748333863208</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>41.55519743953789</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.3038914181127</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>791.9777988942844</v>
+        <v>888.3313057386429</v>
       </c>
       <c r="C2" t="n">
-        <v>564.5584777348398</v>
+        <v>478.2067150519129</v>
       </c>
       <c r="D2" t="n">
-        <v>564.1349518683044</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8351404256051</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F2" t="n">
-        <v>536.8451324196967</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="K2" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="M2" t="n">
         <v>216.5644706858345</v>
       </c>
-      <c r="K2" t="n">
-        <v>216.5644706858345</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>733.4074053521598</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>1250.250340018485</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1767.09327468481</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1767.09327468481</v>
       </c>
       <c r="P2" t="n">
         <v>1767.09327468481</v>
@@ -4360,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V2" t="n">
-        <v>1603.135651610684</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W2" t="n">
-        <v>1603.135651610684</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="X2" t="n">
-        <v>1603.135651610684</v>
+        <v>1295.448754414638</v>
       </c>
       <c r="Y2" t="n">
-        <v>1202.198978558774</v>
+        <v>894.5120813627283</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L3" t="n">
-        <v>558.6080202959275</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M3" t="n">
-        <v>675.1644281008383</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N3" t="n">
-        <v>1192.007362767164</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O3" t="n">
-        <v>1708.850297433489</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>839.8325566443344</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="C4" t="n">
-        <v>839.8325566443344</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="D4" t="n">
-        <v>839.8325566443344</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="E4" t="n">
-        <v>839.8325566443344</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="F4" t="n">
-        <v>675.2014307549257</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="G4" t="n">
-        <v>675.2014307549257</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>675.2014307549257</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>2015.340582126768</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1828.948814006678</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T4" t="n">
-        <v>1589.40007498338</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U4" t="n">
-        <v>1306.601927529505</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V4" t="n">
-        <v>1306.601927529505</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W4" t="n">
-        <v>1027.532263038379</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="X4" t="n">
-        <v>1027.532263038379</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="Y4" t="n">
-        <v>1027.532263038379</v>
+        <v>410.5889678970741</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>795.1993990705208</v>
+        <v>1689.631969834256</v>
       </c>
       <c r="C5" t="n">
-        <v>789.115212424195</v>
+        <v>1683.54778318793</v>
       </c>
       <c r="D5" t="n">
-        <v>788.6916865576595</v>
+        <v>1683.124257321394</v>
       </c>
       <c r="E5" t="n">
-        <v>778.3918751149603</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F5" t="n">
-        <v>761.4018671090519</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G5" t="n">
-        <v>352.673583001884</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>295.9505570973564</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M5" t="n">
-        <v>295.9505570973564</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N5" t="n">
         <v>733.4074053521598</v>
@@ -4597,22 +4597,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1730.766722221062</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V5" t="n">
-        <v>1586.077148611347</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W5" t="n">
-        <v>1202.316847746516</v>
+        <v>1695.812745458341</v>
       </c>
       <c r="X5" t="n">
-        <v>1202.316847746516</v>
+        <v>1695.812745458341</v>
       </c>
       <c r="Y5" t="n">
-        <v>801.3801746946062</v>
+        <v>1695.812745458341</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L6" t="n">
-        <v>497.5713418949007</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.414276561226</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="N6" t="n">
-        <v>1531.257211227551</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O6" t="n">
-        <v>1708.850297433489</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433489</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>278.5311656568747</v>
+        <v>201.259730306692</v>
       </c>
       <c r="C7" t="n">
-        <v>206.3962115190108</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D7" t="n">
-        <v>206.3962115190108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>206.3962115190108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1125.924742512766</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>852.0389974522884</v>
       </c>
       <c r="W7" t="n">
-        <v>503.2668642681101</v>
+        <v>852.0389974522884</v>
       </c>
       <c r="X7" t="n">
-        <v>503.2668642681101</v>
+        <v>613.6951353119717</v>
       </c>
       <c r="Y7" t="n">
-        <v>278.5311656568747</v>
+        <v>388.9594367007364</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>974.1049941024097</v>
+        <v>1455.826617762472</v>
       </c>
       <c r="C8" t="n">
-        <v>968.0208074560838</v>
+        <v>1045.702027075742</v>
       </c>
       <c r="D8" t="n">
-        <v>967.5972815895484</v>
+        <v>641.2380971688021</v>
       </c>
       <c r="E8" t="n">
-        <v>553.2570661064451</v>
+        <v>630.9382857261029</v>
       </c>
       <c r="F8" t="n">
-        <v>132.2266540601327</v>
+        <v>613.9482777201945</v>
       </c>
       <c r="G8" t="n">
-        <v>127.5387739933689</v>
+        <v>205.2199936130266</v>
       </c>
       <c r="H8" t="n">
-        <v>127.5387739933689</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>1329.636426430007</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M8" t="n">
-        <v>1530.854701124212</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N8" t="n">
-        <v>1530.854701124212</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P8" t="n">
         <v>2047.697635790537</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U8" t="n">
-        <v>1730.766722221062</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V8" t="n">
-        <v>1380.929167557543</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W8" t="n">
-        <v>1380.929167557543</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X8" t="n">
-        <v>980.2857697264951</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="Y8" t="n">
-        <v>980.2857697264951</v>
+        <v>1866.047797426961</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>187.8810127971426</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>187.8810127971426</v>
       </c>
       <c r="L9" t="n">
-        <v>1014.414276561226</v>
+        <v>187.8810127971426</v>
       </c>
       <c r="M9" t="n">
-        <v>1531.257211227551</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="N9" t="n">
-        <v>1531.257211227551</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="O9" t="n">
-        <v>1531.257211227551</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P9" t="n">
-        <v>1738.409816796119</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q9" t="n">
         <v>2088.254281480102</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>639.6001036836846</v>
+        <v>920.3847151048558</v>
       </c>
       <c r="C10" t="n">
-        <v>639.6001036836846</v>
+        <v>810.3981082979117</v>
       </c>
       <c r="D10" t="n">
-        <v>639.6001036836846</v>
+        <v>650.9034636208218</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H10" t="n">
         <v>158.1111315252759</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1246.342524902554</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>1192.555513235288</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>918.6697681748102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>639.6001036836846</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>639.6001036836846</v>
+        <v>1332.820120110135</v>
       </c>
       <c r="Y10" t="n">
-        <v>639.6001036836846</v>
+        <v>1108.0844214989</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>809.8415093489451</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G11" t="n">
-        <v>430.9101360764621</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H11" t="n">
         <v>149.7985495388648</v>
@@ -5068,13 +5068,13 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T11" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U11" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V11" t="n">
         <v>3816.98692220683</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>2615.69568868064</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>2615.69568868064</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N12" t="n">
-        <v>3489.353780792258</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O12" t="n">
-        <v>4193.310871338152</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P12" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>701.5888062483714</v>
+        <v>584.5200656392419</v>
       </c>
       <c r="C13" t="n">
-        <v>701.5888062483714</v>
+        <v>584.5200656392419</v>
       </c>
       <c r="D13" t="n">
-        <v>571.8910724059662</v>
+        <v>454.8223317968368</v>
       </c>
       <c r="E13" t="n">
-        <v>571.8910724059662</v>
+        <v>434.4375921661942</v>
       </c>
       <c r="F13" t="n">
-        <v>437.0568573512422</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="G13" t="n">
-        <v>299.6033771114704</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H13" t="n">
-        <v>179.7928327516119</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5202,13 +5202,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362204</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L13" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N13" t="n">
         <v>1237.898275478248</v>
@@ -5229,22 +5229,22 @@
         <v>1644.203548008749</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.203548008749</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U13" t="n">
-        <v>1391.202311389558</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V13" t="n">
-        <v>1317.311306769804</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W13" t="n">
-        <v>1068.038553113363</v>
+        <v>937.361648975152</v>
       </c>
       <c r="X13" t="n">
-        <v>859.4916018077311</v>
+        <v>937.361648975152</v>
       </c>
       <c r="Y13" t="n">
-        <v>859.4916018077311</v>
+        <v>742.4228611986015</v>
       </c>
     </row>
     <row r="14">
@@ -5266,10 +5266,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>809.8415093489451</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G14" t="n">
-        <v>430.9101360764621</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H14" t="n">
         <v>149.7985495388648</v>
@@ -5278,10 +5278,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5308,22 +5308,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T14" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U14" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V14" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X14" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y14" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.216283632599</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N15" t="n">
-        <v>1406.216283632599</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O15" t="n">
-        <v>2110.173374178493</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P15" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q15" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>430.7172814084662</v>
+        <v>615.0396711873821</v>
       </c>
       <c r="C16" t="n">
-        <v>430.7172814084662</v>
+        <v>615.0396711873821</v>
       </c>
       <c r="D16" t="n">
-        <v>430.7172814084662</v>
+        <v>485.3419373449769</v>
       </c>
       <c r="E16" t="n">
-        <v>299.6033771114704</v>
+        <v>485.3419373449769</v>
       </c>
       <c r="F16" t="n">
-        <v>299.6033771114704</v>
+        <v>350.5077222902531</v>
       </c>
       <c r="G16" t="n">
-        <v>299.6033771114704</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H16" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5439,13 +5439,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2864794362204</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N16" t="n">
         <v>1237.898275478248</v>
@@ -5472,16 +5472,16 @@
         <v>1181.450483200945</v>
       </c>
       <c r="V16" t="n">
-        <v>937.3616489751514</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="W16" t="n">
-        <v>688.0888953187106</v>
+        <v>1176.428205828924</v>
       </c>
       <c r="X16" t="n">
-        <v>479.5419440130787</v>
+        <v>967.8812545232921</v>
       </c>
       <c r="Y16" t="n">
-        <v>479.5419440130787</v>
+        <v>772.9424667467416</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489451</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G17" t="n">
-        <v>430.9101360764621</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H17" t="n">
         <v>149.7985495388648</v>
@@ -5557,10 +5557,10 @@
         <v>3463.023532176684</v>
       </c>
       <c r="X17" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>1406.216283632599</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
         <v>2110.173374178493</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>887.4500370879769</v>
+        <v>370.7891949029627</v>
       </c>
       <c r="C19" t="n">
-        <v>746.1535754843782</v>
+        <v>370.7891949029627</v>
       </c>
       <c r="D19" t="n">
-        <v>616.4558416419729</v>
+        <v>361.8110822273902</v>
       </c>
       <c r="E19" t="n">
-        <v>485.3419373449772</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="F19" t="n">
-        <v>350.5077222902532</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G19" t="n">
-        <v>213.0542420504814</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5676,13 +5676,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K19" t="n">
-        <v>320.2864794362204</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N19" t="n">
         <v>1237.898275478248</v>
@@ -5697,28 +5697,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R19" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S19" t="n">
-        <v>1791.715657148762</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T19" t="n">
-        <v>1791.715657148762</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U19" t="n">
-        <v>1538.714420529571</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V19" t="n">
-        <v>1294.625586303777</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="W19" t="n">
-        <v>1045.352832647337</v>
+        <v>932.1777295445045</v>
       </c>
       <c r="X19" t="n">
-        <v>1045.352832647337</v>
+        <v>723.6307782388727</v>
       </c>
       <c r="Y19" t="n">
-        <v>1045.352832647337</v>
+        <v>528.6919904623222</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489452</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764621</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H20" t="n">
         <v>149.7985495388648</v>
@@ -5788,7 +5788,7 @@
         <v>4137.027566035665</v>
       </c>
       <c r="V20" t="n">
-        <v>3816.986922206831</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W20" t="n">
         <v>3463.023532176684</v>
@@ -5834,25 +5834,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>286.056555253256</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M21" t="n">
-        <v>1129.033635947823</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>1548.467481689963</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>1548.467481689963</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>818.7292192987034</v>
+        <v>588.0437791089307</v>
       </c>
       <c r="C22" t="n">
-        <v>697.8684954906432</v>
+        <v>446.747317505332</v>
       </c>
       <c r="D22" t="n">
-        <v>568.170761648238</v>
+        <v>365.5313929851185</v>
       </c>
       <c r="E22" t="n">
-        <v>437.0568573512422</v>
+        <v>365.5313929851185</v>
       </c>
       <c r="F22" t="n">
-        <v>437.0568573512422</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G22" t="n">
-        <v>299.6033771114704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5913,13 +5913,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K22" t="n">
-        <v>320.2864794362204</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N22" t="n">
         <v>1237.898275478248</v>
@@ -5934,28 +5934,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T22" t="n">
-        <v>1434.451719820136</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U22" t="n">
-        <v>1434.451719820136</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V22" t="n">
-        <v>1434.451719820136</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W22" t="n">
-        <v>1185.178966163695</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="X22" t="n">
-        <v>976.632014858063</v>
+        <v>940.8853624448408</v>
       </c>
       <c r="Y22" t="n">
-        <v>976.632014858063</v>
+        <v>745.9465746682903</v>
       </c>
     </row>
     <row r="23">
@@ -5974,13 +5974,13 @@
         <v>1585.618315208991</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G23" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764625</v>
       </c>
       <c r="H23" t="n">
         <v>149.7985495388648</v>
@@ -6019,7 +6019,7 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T23" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U23" t="n">
         <v>4137.027566035664</v>
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>549.0499539559215</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M24" t="n">
-        <v>1392.027034650488</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>570.9119021101607</v>
+        <v>844.3014383065603</v>
       </c>
       <c r="C25" t="n">
-        <v>429.615440506562</v>
+        <v>703.0049767029616</v>
       </c>
       <c r="D25" t="n">
-        <v>429.615440506562</v>
+        <v>703.0049767029616</v>
       </c>
       <c r="E25" t="n">
-        <v>429.615440506562</v>
+        <v>571.8910724059659</v>
       </c>
       <c r="F25" t="n">
-        <v>299.6033771114703</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G25" t="n">
         <v>299.6033771114703</v>
@@ -6171,28 +6171,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S25" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T25" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U25" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V25" t="n">
-        <v>937.361648975152</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="W25" t="n">
-        <v>937.361648975152</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="X25" t="n">
-        <v>728.8146976695202</v>
+        <v>1197.14302164247</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.8146976695202</v>
+        <v>1002.20423386592</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2438.386230178004</v>
+        <v>2348.323962459792</v>
       </c>
       <c r="C26" t="n">
         <v>2044.090948033857</v>
       </c>
       <c r="D26" t="n">
-        <v>1655.4563266695</v>
+        <v>1655.456326669501</v>
       </c>
       <c r="E26" t="n">
         <v>1256.94541972898</v>
       </c>
       <c r="F26" t="n">
-        <v>851.7443162252505</v>
+        <v>851.7443162252508</v>
       </c>
       <c r="G26" t="n">
-        <v>458.8453406606657</v>
+        <v>458.8453406606659</v>
       </c>
       <c r="H26" t="n">
-        <v>163.7661518309666</v>
+        <v>163.7661518309667</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4542.733117867823</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4336.355942357265</v>
+        <v>4455.807709020582</v>
       </c>
       <c r="U26" t="n">
-        <v>4095.124759159358</v>
+        <v>4214.576525822675</v>
       </c>
       <c r="V26" t="n">
-        <v>3761.116513038422</v>
+        <v>3880.568279701738</v>
       </c>
       <c r="W26" t="n">
-        <v>3602.699555097702</v>
+        <v>3512.63728737949</v>
       </c>
       <c r="X26" t="n">
-        <v>3217.885465809237</v>
+        <v>3127.823198091025</v>
       </c>
       <c r="Y26" t="n">
-        <v>2832.77810129991</v>
+        <v>2742.715833581698</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>482.5072777673182</v>
+        <v>540.9749150676563</v>
       </c>
       <c r="C28" t="n">
-        <v>482.5072777673182</v>
+        <v>385.7108511719557</v>
       </c>
       <c r="D28" t="n">
-        <v>338.8419416328112</v>
+        <v>242.0455150374486</v>
       </c>
       <c r="E28" t="n">
-        <v>193.7604350437136</v>
+        <v>242.0455150374486</v>
       </c>
       <c r="F28" t="n">
-        <v>193.7604350437136</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>193.7604350437136</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>193.7604350437136</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>122.8405523984189</v>
+        <v>122.8405523984188</v>
       </c>
       <c r="K28" t="n">
-        <v>292.9071854232425</v>
+        <v>292.9071854232423</v>
       </c>
       <c r="L28" t="n">
-        <v>568.3185910058887</v>
+        <v>568.3185910058883</v>
       </c>
       <c r="M28" t="n">
-        <v>873.0969527489676</v>
+        <v>873.0969527489671</v>
       </c>
       <c r="N28" t="n">
-        <v>1169.450040445804</v>
+        <v>1169.450040445803</v>
       </c>
       <c r="O28" t="n">
         <v>1444.524956074863</v>
       </c>
       <c r="P28" t="n">
-        <v>1665.714701627061</v>
+        <v>1665.71470162706</v>
       </c>
       <c r="Q28" t="n">
-        <v>1746.757036732158</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="R28" t="n">
-        <v>1677.313626950141</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="S28" t="n">
-        <v>1677.313626950141</v>
+        <v>1576.19457715465</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.594196469426</v>
+        <v>1576.19457715465</v>
       </c>
       <c r="U28" t="n">
-        <v>1186.625357558133</v>
+        <v>1309.225738243357</v>
       </c>
       <c r="V28" t="n">
-        <v>928.5689210402379</v>
+        <v>1051.169301725462</v>
       </c>
       <c r="W28" t="n">
-        <v>705.0218313650518</v>
+        <v>972.3958587340425</v>
       </c>
       <c r="X28" t="n">
-        <v>482.5072777673182</v>
+        <v>749.8813051363087</v>
       </c>
       <c r="Y28" t="n">
-        <v>482.5072777673182</v>
+        <v>540.9749150676563</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2435.249371307033</v>
+        <v>2367.863776037661</v>
       </c>
       <c r="C29" t="n">
-        <v>2040.954089162887</v>
+        <v>1973.568493893513</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.31946779853</v>
+        <v>1584.933872529157</v>
       </c>
       <c r="E29" t="n">
-        <v>1253.80856085801</v>
+        <v>1186.422965588637</v>
       </c>
       <c r="F29" t="n">
-        <v>848.6074573542805</v>
+        <v>781.2218620849069</v>
       </c>
       <c r="G29" t="n">
-        <v>455.7084817896957</v>
+        <v>388.322886520322</v>
       </c>
       <c r="H29" t="n">
-        <v>160.6292929599967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4542.733117867823</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4542.733117867823</v>
+        <v>4455.807709020582</v>
       </c>
       <c r="U29" t="n">
-        <v>4301.501934669916</v>
+        <v>4214.576525822675</v>
       </c>
       <c r="V29" t="n">
-        <v>3967.49368854898</v>
+        <v>3900.108093279607</v>
       </c>
       <c r="W29" t="n">
-        <v>3599.562696226732</v>
+        <v>3532.177100957359</v>
       </c>
       <c r="X29" t="n">
-        <v>3214.748606938267</v>
+        <v>3147.363011668894</v>
       </c>
       <c r="Y29" t="n">
-        <v>2829.64124242894</v>
+        <v>2762.255647159567</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M30" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>543.5941802527038</v>
+        <v>193.7604350437137</v>
       </c>
       <c r="C31" t="n">
-        <v>388.3301163570033</v>
+        <v>193.7604350437137</v>
       </c>
       <c r="D31" t="n">
-        <v>244.6647802224963</v>
+        <v>193.7604350437137</v>
       </c>
       <c r="E31" t="n">
-        <v>244.6647802224963</v>
+        <v>193.7604350437137</v>
       </c>
       <c r="F31" t="n">
-        <v>244.6647802224963</v>
+        <v>193.7604350437137</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>193.7604350437137</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>193.7604350437137</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>122.8405523984189</v>
+        <v>122.8405523984188</v>
       </c>
       <c r="K31" t="n">
-        <v>292.9071854232425</v>
+        <v>292.9071854232423</v>
       </c>
       <c r="L31" t="n">
-        <v>568.3185910058887</v>
+        <v>568.3185910058883</v>
       </c>
       <c r="M31" t="n">
-        <v>873.0969527489676</v>
+        <v>873.0969527489671</v>
       </c>
       <c r="N31" t="n">
-        <v>1169.450040445804</v>
+        <v>1169.450040445803</v>
       </c>
       <c r="O31" t="n">
         <v>1444.524956074863</v>
       </c>
       <c r="P31" t="n">
-        <v>1665.714701627061</v>
+        <v>1665.71470162706</v>
       </c>
       <c r="Q31" t="n">
-        <v>1746.757036732158</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="R31" t="n">
-        <v>1677.313626950141</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="S31" t="n">
-        <v>1506.751167372634</v>
+        <v>1576.19457715465</v>
       </c>
       <c r="T31" t="n">
-        <v>1506.751167372634</v>
+        <v>1352.475146673935</v>
       </c>
       <c r="U31" t="n">
-        <v>1239.782328461341</v>
+        <v>1085.506307762642</v>
       </c>
       <c r="V31" t="n">
-        <v>981.7258919434462</v>
+        <v>827.4498712447466</v>
       </c>
       <c r="W31" t="n">
-        <v>981.7258919434462</v>
+        <v>588.145386492909</v>
       </c>
       <c r="X31" t="n">
-        <v>924.3709681728175</v>
+        <v>365.6308328951752</v>
       </c>
       <c r="Y31" t="n">
-        <v>715.4645781041652</v>
+        <v>365.6308328951752</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2228.872195796475</v>
+        <v>2348.323962459792</v>
       </c>
       <c r="C32" t="n">
-        <v>1834.576913652329</v>
+        <v>1954.028680315645</v>
       </c>
       <c r="D32" t="n">
-        <v>1655.4563266695</v>
+        <v>1584.933872529157</v>
       </c>
       <c r="E32" t="n">
-        <v>1256.94541972898</v>
+        <v>1186.422965588637</v>
       </c>
       <c r="F32" t="n">
-        <v>851.7443162252505</v>
+        <v>781.2218620849069</v>
       </c>
       <c r="G32" t="n">
-        <v>458.8453406606657</v>
+        <v>388.322886520322</v>
       </c>
       <c r="H32" t="n">
-        <v>163.7661518309666</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6703,7 +6703,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4542.733117867823</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4336.355942357265</v>
+        <v>4455.807709020582</v>
       </c>
       <c r="U32" t="n">
-        <v>4095.124759159358</v>
+        <v>4214.576525822675</v>
       </c>
       <c r="V32" t="n">
-        <v>3761.116513038422</v>
+        <v>3880.568279701738</v>
       </c>
       <c r="W32" t="n">
-        <v>3393.185520716173</v>
+        <v>3512.63728737949</v>
       </c>
       <c r="X32" t="n">
-        <v>3008.371431427709</v>
+        <v>3127.823198091025</v>
       </c>
       <c r="Y32" t="n">
-        <v>2623.264066918382</v>
+        <v>2742.715833581698</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3694.733082511328</v>
+        <v>826.1741442514905</v>
       </c>
       <c r="C34" t="n">
-        <v>3539.469018615628</v>
+        <v>670.9100803557899</v>
       </c>
       <c r="D34" t="n">
-        <v>3539.469018615628</v>
+        <v>527.2447442212828</v>
       </c>
       <c r="E34" t="n">
-        <v>3394.38751202653</v>
+        <v>527.2447442212828</v>
       </c>
       <c r="F34" t="n">
-        <v>3394.38751202653</v>
+        <v>378.4429268744569</v>
       </c>
       <c r="G34" t="n">
-        <v>3242.966429494656</v>
+        <v>227.0218443425832</v>
       </c>
       <c r="H34" t="n">
-        <v>3109.188282842696</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3008.671545489605</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3038.268400197401</v>
+        <v>122.8405523984188</v>
       </c>
       <c r="K34" t="n">
-        <v>3208.335033222225</v>
+        <v>292.9071854232423</v>
       </c>
       <c r="L34" t="n">
-        <v>3483.746438804871</v>
+        <v>568.3185910058883</v>
       </c>
       <c r="M34" t="n">
-        <v>3788.52480054795</v>
+        <v>873.0969527489671</v>
       </c>
       <c r="N34" t="n">
-        <v>4084.877888244785</v>
+        <v>1169.450040445803</v>
       </c>
       <c r="O34" t="n">
-        <v>4359.952803873845</v>
+        <v>1444.524956074863</v>
       </c>
       <c r="P34" t="n">
-        <v>4581.142549426043</v>
+        <v>1665.71470162706</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="R34" t="n">
-        <v>4592.741474749122</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="S34" t="n">
-        <v>4592.741474749122</v>
+        <v>1576.19457715465</v>
       </c>
       <c r="T34" t="n">
-        <v>4592.741474749122</v>
+        <v>1515.651524435772</v>
       </c>
       <c r="U34" t="n">
-        <v>4592.741474749122</v>
+        <v>1515.651524435772</v>
       </c>
       <c r="V34" t="n">
-        <v>4334.685038231227</v>
+        <v>1257.595087917877</v>
       </c>
       <c r="W34" t="n">
-        <v>4071.444682282684</v>
+        <v>1257.595087917877</v>
       </c>
       <c r="X34" t="n">
-        <v>3866.603480362789</v>
+        <v>1035.080534320143</v>
       </c>
       <c r="Y34" t="n">
-        <v>3866.603480362789</v>
+        <v>826.1741442514905</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2438.386230178004</v>
+        <v>2348.323962459792</v>
       </c>
       <c r="C35" t="n">
-        <v>2044.090948033857</v>
+        <v>1954.028680315645</v>
       </c>
       <c r="D35" t="n">
-        <v>1655.4563266695</v>
+        <v>1655.456326669501</v>
       </c>
       <c r="E35" t="n">
         <v>1256.94541972898</v>
       </c>
       <c r="F35" t="n">
-        <v>851.7443162252505</v>
+        <v>851.7443162252508</v>
       </c>
       <c r="G35" t="n">
-        <v>458.8453406606657</v>
+        <v>458.8453406606659</v>
       </c>
       <c r="H35" t="n">
-        <v>163.7661518309666</v>
+        <v>163.7661518309667</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4542.733117867823</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4336.355942357265</v>
+        <v>4455.807709020582</v>
       </c>
       <c r="U35" t="n">
-        <v>4095.124759159358</v>
+        <v>4214.576525822675</v>
       </c>
       <c r="V35" t="n">
-        <v>3970.63054741995</v>
+        <v>3880.568279701738</v>
       </c>
       <c r="W35" t="n">
-        <v>3602.699555097702</v>
+        <v>3512.63728737949</v>
       </c>
       <c r="X35" t="n">
-        <v>3217.885465809237</v>
+        <v>3127.823198091025</v>
       </c>
       <c r="Y35" t="n">
-        <v>2832.77810129991</v>
+        <v>2742.715833581698</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.1924241948923</v>
+        <v>537.2546043099281</v>
       </c>
       <c r="C37" t="n">
-        <v>633.9283602991918</v>
+        <v>381.9905404142276</v>
       </c>
       <c r="D37" t="n">
-        <v>490.2630241646848</v>
+        <v>238.3252042797204</v>
       </c>
       <c r="E37" t="n">
-        <v>345.1815175755872</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>345.1815175755872</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>193.7604350437136</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>193.7604350437136</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>122.8405523984189</v>
+        <v>122.8405523984188</v>
       </c>
       <c r="K37" t="n">
-        <v>292.9071854232425</v>
+        <v>292.9071854232423</v>
       </c>
       <c r="L37" t="n">
-        <v>568.3185910058887</v>
+        <v>568.3185910058883</v>
       </c>
       <c r="M37" t="n">
-        <v>873.0969527489676</v>
+        <v>873.0969527489671</v>
       </c>
       <c r="N37" t="n">
-        <v>1169.450040445804</v>
+        <v>1169.450040445803</v>
       </c>
       <c r="O37" t="n">
         <v>1444.524956074863</v>
       </c>
       <c r="P37" t="n">
-        <v>1665.714701627061</v>
+        <v>1665.71470162706</v>
       </c>
       <c r="Q37" t="n">
-        <v>1746.757036732158</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="R37" t="n">
-        <v>1746.757036732158</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="S37" t="n">
-        <v>1576.194577154651</v>
+        <v>1576.19457715465</v>
       </c>
       <c r="T37" t="n">
-        <v>1352.475146673936</v>
+        <v>1489.972340442752</v>
       </c>
       <c r="U37" t="n">
-        <v>1085.506307762643</v>
+        <v>1489.972340442752</v>
       </c>
       <c r="V37" t="n">
-        <v>827.4498712447485</v>
+        <v>1231.915903924857</v>
       </c>
       <c r="W37" t="n">
-        <v>827.4498712447485</v>
+        <v>968.6755479763143</v>
       </c>
       <c r="X37" t="n">
-        <v>789.1924241948923</v>
+        <v>746.1609943785805</v>
       </c>
       <c r="Y37" t="n">
-        <v>789.1924241948923</v>
+        <v>537.2546043099281</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2438.386230178004</v>
+        <v>2367.863776037661</v>
       </c>
       <c r="C38" t="n">
-        <v>2044.090948033857</v>
+        <v>1973.568493893513</v>
       </c>
       <c r="D38" t="n">
-        <v>1655.4563266695</v>
+        <v>1584.933872529157</v>
       </c>
       <c r="E38" t="n">
-        <v>1256.94541972898</v>
+        <v>1186.422965588637</v>
       </c>
       <c r="F38" t="n">
-        <v>851.7443162252507</v>
+        <v>781.2218620849069</v>
       </c>
       <c r="G38" t="n">
-        <v>458.8453406606658</v>
+        <v>388.322886520322</v>
       </c>
       <c r="H38" t="n">
-        <v>163.7661518309667</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7204,22 +7204,22 @@
         <v>4542.733117867823</v>
       </c>
       <c r="T38" t="n">
-        <v>4336.355942357265</v>
+        <v>4475.34752259845</v>
       </c>
       <c r="U38" t="n">
-        <v>4095.124759159358</v>
+        <v>4234.116339400543</v>
       </c>
       <c r="V38" t="n">
-        <v>3761.116513038422</v>
+        <v>3900.108093279607</v>
       </c>
       <c r="W38" t="n">
-        <v>3602.699555097702</v>
+        <v>3532.177100957359</v>
       </c>
       <c r="X38" t="n">
-        <v>3217.885465809237</v>
+        <v>3147.363011668894</v>
       </c>
       <c r="Y38" t="n">
-        <v>2832.77810129991</v>
+        <v>2762.255647159567</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M39" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3987.200235992661</v>
+        <v>533.4116229461013</v>
       </c>
       <c r="C40" t="n">
-        <v>3831.93617209696</v>
+        <v>533.4116229461013</v>
       </c>
       <c r="D40" t="n">
-        <v>3688.270835962453</v>
+        <v>389.7462868115941</v>
       </c>
       <c r="E40" t="n">
-        <v>3543.189329373356</v>
+        <v>244.6647802224965</v>
       </c>
       <c r="F40" t="n">
-        <v>3394.38751202653</v>
+        <v>244.6647802224965</v>
       </c>
       <c r="G40" t="n">
-        <v>3242.966429494656</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>3109.188282842696</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
-        <v>3008.671545489605</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3038.268400197401</v>
+        <v>122.8405523984188</v>
       </c>
       <c r="K40" t="n">
-        <v>3208.335033222225</v>
+        <v>292.9071854232423</v>
       </c>
       <c r="L40" t="n">
-        <v>3483.746438804871</v>
+        <v>568.3185910058883</v>
       </c>
       <c r="M40" t="n">
-        <v>3788.52480054795</v>
+        <v>873.0969527489671</v>
       </c>
       <c r="N40" t="n">
-        <v>4084.877888244785</v>
+        <v>1169.450040445803</v>
       </c>
       <c r="O40" t="n">
-        <v>4359.952803873845</v>
+        <v>1444.524956074863</v>
       </c>
       <c r="P40" t="n">
-        <v>4581.142549426043</v>
+        <v>1665.71470162706</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="R40" t="n">
-        <v>4662.18488453114</v>
+        <v>1746.757036732157</v>
       </c>
       <c r="S40" t="n">
-        <v>4662.18488453114</v>
+        <v>1576.19457715465</v>
       </c>
       <c r="T40" t="n">
-        <v>4662.18488453114</v>
+        <v>1352.475146673935</v>
       </c>
       <c r="U40" t="n">
-        <v>4662.18488453114</v>
+        <v>1222.889003130383</v>
       </c>
       <c r="V40" t="n">
-        <v>4590.491577510508</v>
+        <v>964.8325666124874</v>
       </c>
       <c r="W40" t="n">
-        <v>4590.491577510508</v>
+        <v>964.8325666124874</v>
       </c>
       <c r="X40" t="n">
-        <v>4367.977023912775</v>
+        <v>742.3180130147537</v>
       </c>
       <c r="Y40" t="n">
-        <v>4159.070633844122</v>
+        <v>533.4116229461013</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
         <v>93.2436976906228</v>
@@ -7411,10 +7411,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M42" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N42" t="n">
-        <v>1406.216283632599</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O42" t="n">
-        <v>2110.173374178493</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.6240469015422</v>
+        <v>566.9769234516648</v>
       </c>
       <c r="C43" t="n">
-        <v>745.5306744632587</v>
+        <v>566.9769234516648</v>
       </c>
       <c r="D43" t="n">
-        <v>586.0360297861687</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="E43" t="n">
-        <v>425.1252146544881</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="F43" t="n">
-        <v>260.4940887650794</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H43" t="n">
         <v>93.2436976906228</v>
@@ -7605,16 +7605,16 @@
         <v>1622.642594311473</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.642594311473</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W43" t="n">
-        <v>1567.403314047138</v>
+        <v>1069.687184759869</v>
       </c>
       <c r="X43" t="n">
-        <v>1329.059451906822</v>
+        <v>831.3433226195527</v>
       </c>
       <c r="Y43" t="n">
-        <v>1104.323753295587</v>
+        <v>754.6766298457092</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C44" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>1692.113136769081</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>1277.772921285978</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>856.7425092396657</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>448.0142251324978</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
         <v>179.5954603735497</v>
@@ -7648,10 +7648,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674171</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4563.732881158784</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4341.526397105643</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4084.465905365153</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>3734.628350701634</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3350.868049836802</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>2950.224652005755</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2549.287978953845</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>2808.508546243273</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>2808.508546243273</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>2808.508546243273</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M45" t="n">
-        <v>3651.48562693784</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N45" t="n">
-        <v>3651.48562693784</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O45" t="n">
-        <v>3750.634527358626</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>4312.340419847156</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>416.1958163843295</v>
+        <v>410.0985766118484</v>
       </c>
       <c r="C46" t="n">
-        <v>416.1958163843295</v>
+        <v>239.0052041735649</v>
       </c>
       <c r="D46" t="n">
-        <v>416.1958163843295</v>
+        <v>239.0052041735649</v>
       </c>
       <c r="E46" t="n">
-        <v>416.1958163843295</v>
+        <v>239.0052041735649</v>
       </c>
       <c r="F46" t="n">
-        <v>251.5646904949208</v>
+        <v>239.0052041735649</v>
       </c>
       <c r="G46" t="n">
-        <v>209.5897435862967</v>
+        <v>239.0052041735649</v>
       </c>
       <c r="H46" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T46" t="n">
-        <v>1111.429368843485</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U46" t="n">
-        <v>828.6312213896092</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V46" t="n">
-        <v>828.6312213896092</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="W46" t="n">
-        <v>828.6312213896092</v>
+        <v>634.8342752230838</v>
       </c>
       <c r="X46" t="n">
-        <v>828.6312213896092</v>
+        <v>634.8342752230838</v>
       </c>
       <c r="Y46" t="n">
-        <v>603.8955227783739</v>
+        <v>410.0985766118484</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>249.8886267436438</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>269.8552598673813</v>
       </c>
       <c r="N2" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8063,10 +8063,10 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>175.2980289959031</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
         <v>575.2569637637755</v>
@@ -8075,13 +8075,13 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>201.8514806265826</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>272.0504334731807</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>534.7878950544006</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>528.0883472030763</v>
       </c>
       <c r="O6" t="n">
-        <v>237.1384347635734</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>296.5410069764447</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
         <v>92.91229075661933</v>
@@ -8470,7 +8470,7 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>553.6531472828635</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
@@ -8531,13 +8531,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>198.9610844237783</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>579.627854108443</v>
@@ -8546,10 +8546,10 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>263.5046911326701</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
@@ -8707,7 +8707,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
@@ -8768,25 +8768,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>234.5959412371211</v>
       </c>
       <c r="P12" t="n">
-        <v>527.8697493391553</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M15" t="n">
-        <v>716.0333888118392</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>527.9363279870926</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9482,16 +9482,16 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>476.863944648437</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
         <v>57.751479</v>
@@ -9500,10 +9500,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>97.38406848944746</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M30" t="n">
-        <v>846.2776300172818</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10834,7 +10834,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N38" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O38" t="n">
         <v>743.321953824879</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M39" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>711.6624984671718</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,19 +11378,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>157.9018834654409</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
@@ -23424,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540258</v>
+        <v>109.6218730196896</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>207.654309906727</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>168.4958513099785</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.989399898785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>107.9873516251996</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>241.8079715215752</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.989399898785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>119.5124249551644</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037917</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501641</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>91.11593863359617</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>207.654309906727</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.989399898785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>20.2313804175832</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>47.99699122896968</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.989399898785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,13 +24372,13 @@
         <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>4.773930143035898</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W25" t="n">
         <v>246.7800261198764</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>167.076045434669</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>89.1616450410304</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>118.2572489966831</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>207.4188940377128</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>170.1516938729468</v>
+        <v>170.1516938729469</v>
       </c>
       <c r="C28" t="n">
-        <v>153.7114232567435</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>143.6306915232067</v>
       </c>
       <c r="F28" t="n">
-        <v>147.3137991733575</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>149.9068717065548</v>
+        <v>149.9068717065549</v>
       </c>
       <c r="H28" t="n">
-        <v>132.4403651854407</v>
+        <v>132.4403651854408</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>99.51156997956002</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>68.74897568419726</v>
       </c>
       <c r="S28" t="n">
-        <v>168.8568349817317</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.4822361759078</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>39.2963336106229</v>
+        <v>182.6222438275524</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>206.8173261679657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>3.105490282260249</v>
+        <v>69.81722959894049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>118.2572489966831</v>
       </c>
       <c r="T29" t="n">
-        <v>204.3134037554526</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>19.34441544209017</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>142.228682773162</v>
       </c>
       <c r="E31" t="n">
-        <v>143.6306915232065</v>
+        <v>143.6306915232067</v>
       </c>
       <c r="F31" t="n">
-        <v>147.3137991733575</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>149.9068717065549</v>
       </c>
       <c r="H31" t="n">
-        <v>132.4403651854407</v>
+        <v>132.4403651854408</v>
       </c>
       <c r="I31" t="n">
-        <v>99.51156997955994</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>68.74897568419726</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.4822361759077</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>260.6079523890572</v>
+        <v>23.69651248473801</v>
       </c>
       <c r="X31" t="n">
-        <v>163.5080335288338</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>206.8173261679659</v>
       </c>
     </row>
     <row r="32">
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>207.4188940377128</v>
+        <v>19.34441544208988</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>69.81722959894049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>118.2572489966831</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>170.1516938729469</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>142.2286827731619</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>143.6306915232067</v>
       </c>
       <c r="F34" t="n">
-        <v>147.3137991733575</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>99.51156997956002</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>68.74897568419726</v>
       </c>
       <c r="S34" t="n">
-        <v>168.8568349817317</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.4822361759077</v>
+        <v>161.5446139842186</v>
       </c>
       <c r="U34" t="n">
-        <v>264.2991505221799</v>
+        <v>264.29915052218</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>260.6079523890573</v>
       </c>
       <c r="X34" t="n">
-        <v>17.49661816106072</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>206.8173261679657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>89.16164504103051</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>118.2572489966831</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>207.418894037713</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>170.1516938729468</v>
+        <v>170.1516938729469</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>147.3137991733575</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>149.9068717065549</v>
       </c>
       <c r="H37" t="n">
-        <v>132.4403651854407</v>
+        <v>132.4403651854408</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>99.51156997956002</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.74897568419716</v>
+        <v>68.74897568419726</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>136.1222218311293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>264.29915052218</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>260.6079523890572</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>182.4145354823986</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>206.8173261679657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>69.81722959894049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>137.6016644387735</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>207.4188940377129</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>170.1516938729469</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>153.7114232567436</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>147.3137991733576</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>132.4403651854408</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>99.51156997956002</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.74897568419723</v>
+        <v>68.74897568419726</v>
       </c>
       <c r="S40" t="n">
-        <v>168.8568349817317</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.4822361759078</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>264.29915052218</v>
+        <v>136.0088684140633</v>
       </c>
       <c r="V40" t="n">
-        <v>184.499498202291</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>260.6079523890572</v>
+        <v>260.6079523890573</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>223.0676163851324</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -25845,16 +25845,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>221.5920803845231</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>146.5883157790178</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>42.06483528720054</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>36.46078111520806</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -26034,16 +26034,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>124.0226897241741</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>3.807489224485209</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>566142.5811277078</v>
+        <v>566142.5811277077</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>566142.5811277078</v>
+        <v>566142.5811277077</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>545383.374735311</v>
+        <v>545383.3747353109</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>545383.3747353111</v>
+        <v>545383.3747353108</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>545383.374735311</v>
+        <v>545383.3747353108</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>521857.2264234978</v>
+        <v>521857.226423498</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>586376.6149168452</v>
+        <v>586376.614916845</v>
       </c>
       <c r="C2" t="n">
-        <v>586376.6149168452</v>
+        <v>586376.614916845</v>
       </c>
       <c r="D2" t="n">
-        <v>586376.6149168452</v>
+        <v>586376.614916845</v>
       </c>
       <c r="E2" t="n">
+        <v>568257.9771323322</v>
+      </c>
+      <c r="F2" t="n">
         <v>568257.9771323319</v>
       </c>
-      <c r="F2" t="n">
-        <v>568257.9771323323</v>
-      </c>
       <c r="G2" t="n">
-        <v>568257.9771323322</v>
+        <v>568257.9771323319</v>
       </c>
       <c r="H2" t="n">
-        <v>568257.9771323317</v>
+        <v>568257.977132332</v>
       </c>
       <c r="I2" t="n">
         <v>568257.9771323317</v>
       </c>
       <c r="J2" t="n">
-        <v>546277.6409521484</v>
+        <v>546277.6409521479</v>
       </c>
       <c r="K2" t="n">
-        <v>546277.6409521487</v>
+        <v>546277.6409521478</v>
       </c>
       <c r="L2" t="n">
-        <v>546277.6409521486</v>
+        <v>546277.6409521477</v>
       </c>
       <c r="M2" t="n">
-        <v>546277.6409521485</v>
+        <v>546277.6409521477</v>
       </c>
       <c r="N2" t="n">
-        <v>546277.6409521486</v>
+        <v>546277.6409521478</v>
       </c>
       <c r="O2" t="n">
-        <v>521367.601563169</v>
+        <v>521367.6015631691</v>
       </c>
       <c r="P2" t="n">
-        <v>521367.6015631689</v>
+        <v>521367.6015631687</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215728.9162805135</v>
+        <v>215728.9162805136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>174432.0962319951</v>
       </c>
       <c r="E4" t="n">
-        <v>60002.64896085217</v>
+        <v>60002.64896085222</v>
       </c>
       <c r="F4" t="n">
-        <v>60002.64896085217</v>
+        <v>60002.64896085222</v>
       </c>
       <c r="G4" t="n">
-        <v>60002.64896085217</v>
+        <v>60002.64896085222</v>
       </c>
       <c r="H4" t="n">
-        <v>60002.64896085217</v>
+        <v>60002.64896085222</v>
       </c>
       <c r="I4" t="n">
-        <v>60002.64896085224</v>
+        <v>60002.64896085222</v>
       </c>
       <c r="J4" t="n">
-        <v>46028.89720112269</v>
+        <v>46028.89720112259</v>
       </c>
       <c r="K4" t="n">
-        <v>46028.89720112269</v>
+        <v>46028.89720112259</v>
       </c>
       <c r="L4" t="n">
-        <v>46028.8972011227</v>
+        <v>46028.89720112259</v>
       </c>
       <c r="M4" t="n">
-        <v>46028.89720112269</v>
+        <v>46028.89720112259</v>
       </c>
       <c r="N4" t="n">
-        <v>46028.89720112263</v>
+        <v>46028.89720112259</v>
       </c>
       <c r="O4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="P4" t="n">
         <v>30192.61954398331</v>
@@ -26493,16 +26493,16 @@
         <v>73345.15677686482</v>
       </c>
       <c r="J5" t="n">
-        <v>72182.65684334107</v>
+        <v>72182.65684334106</v>
       </c>
       <c r="K5" t="n">
-        <v>72182.65684334107</v>
+        <v>72182.65684334106</v>
       </c>
       <c r="L5" t="n">
-        <v>72182.65684334107</v>
+        <v>72182.65684334106</v>
       </c>
       <c r="M5" t="n">
-        <v>72182.65684334107</v>
+        <v>72182.65684334106</v>
       </c>
       <c r="N5" t="n">
         <v>72182.65684334106</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>171619.9437132386</v>
+        <v>171619.9437132383</v>
       </c>
       <c r="C6" t="n">
-        <v>346575.4536063526</v>
+        <v>346575.4536063523</v>
       </c>
       <c r="D6" t="n">
-        <v>346575.4536063526</v>
+        <v>346575.4536063523</v>
       </c>
       <c r="E6" t="n">
-        <v>219181.2551141014</v>
+        <v>219130.9255647001</v>
       </c>
       <c r="F6" t="n">
-        <v>434910.1713946153</v>
+        <v>434859.8418452134</v>
       </c>
       <c r="G6" t="n">
-        <v>434910.1713946152</v>
+        <v>434859.8418452134</v>
       </c>
       <c r="H6" t="n">
-        <v>434910.1713946147</v>
+        <v>434859.8418452136</v>
       </c>
       <c r="I6" t="n">
-        <v>434910.1713946146</v>
+        <v>434859.8418452132</v>
       </c>
       <c r="J6" t="n">
-        <v>278934.4737360639</v>
+        <v>278823.0876972728</v>
       </c>
       <c r="K6" t="n">
-        <v>428066.0869076849</v>
+        <v>427954.7008688933</v>
       </c>
       <c r="L6" t="n">
-        <v>428066.0869076848</v>
+        <v>427954.7008688932</v>
       </c>
       <c r="M6" t="n">
-        <v>267707.636407002</v>
+        <v>267596.2503682105</v>
       </c>
       <c r="N6" t="n">
-        <v>428066.0869076849</v>
+        <v>427954.7008688933</v>
       </c>
       <c r="O6" t="n">
-        <v>420309.7717743124</v>
+        <v>420129.1911816634</v>
       </c>
       <c r="P6" t="n">
-        <v>420309.7717743123</v>
+        <v>420129.191181663</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J2" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="K2" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="L2" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="M2" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="N2" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>180.8782168320124</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -27444,7 +27444,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>312.0113548412617</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -27548,13 +27548,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>63.73620979822972</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>12.23542878155337</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27624,10 +27624,10 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>203.0965012432668</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.8237284715648</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>97.96883411741534</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>76.33657027209341</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>231.4672985510664</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5722935759683736</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>60.49569797502599</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>226.7210244287445</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="C26" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="D26" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="E26" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="F26" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="G26" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="H26" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="I26" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="T26" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="U26" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="V26" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="W26" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="X26" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="Y26" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="C28" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="D28" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="E28" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="F28" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="G28" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="H28" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="I28" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="J28" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="K28" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="L28" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="M28" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="N28" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="O28" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="P28" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="R28" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="S28" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="T28" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="U28" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="V28" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="W28" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="X28" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="C29" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="D29" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="E29" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="F29" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="G29" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="H29" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="I29" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="T29" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="U29" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="V29" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="W29" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="X29" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="Y29" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="C31" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="D31" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="E31" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="F31" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="G31" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="H31" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="I31" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="J31" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="K31" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="L31" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="M31" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="N31" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="O31" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="P31" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="R31" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="S31" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="T31" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="U31" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="V31" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="W31" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="X31" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="Y31" t="n">
-        <v>15.67101545715717</v>
+        <v>15.67101545715708</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="C32" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="D32" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="E32" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="F32" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="G32" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="H32" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="I32" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="T32" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="U32" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="V32" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="W32" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="X32" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="Y32" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="C34" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="D34" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="E34" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="F34" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="G34" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="H34" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="I34" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="J34" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="K34" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="L34" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="M34" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="N34" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="O34" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="P34" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="R34" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="S34" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="T34" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="U34" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="V34" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="W34" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="X34" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="C35" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="D35" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="E35" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="F35" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="G35" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="H35" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="I35" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="T35" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="U35" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="V35" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="W35" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="X35" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="Y35" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="C37" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="D37" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="E37" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="F37" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="G37" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="H37" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="I37" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="J37" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="K37" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="L37" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="M37" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="N37" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="O37" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="P37" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="R37" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="S37" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="T37" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="U37" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="V37" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="W37" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="X37" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.67101545715718</v>
+        <v>15.67101545715708</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="C38" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="D38" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="E38" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="F38" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="G38" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="H38" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="I38" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="T38" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="U38" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="V38" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="W38" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="X38" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="Y38" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="C40" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="D40" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="E40" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="F40" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="G40" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="H40" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="I40" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="J40" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="K40" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="L40" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="M40" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="N40" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="O40" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="P40" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="R40" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="S40" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="T40" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="U40" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="V40" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="W40" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="X40" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.67101545715712</v>
+        <v>15.67101545715708</v>
       </c>
     </row>
     <row r="41">
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>176.5650354103358</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34783,10 +34783,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M3" t="n">
-        <v>117.7337452574857</v>
       </c>
       <c r="N3" t="n">
         <v>522.0635703700256</v>
@@ -34795,13 +34795,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>147.5918456237788</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>441.8756042977813</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>474.8949538093263</v>
+      </c>
+      <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O6" t="n">
-        <v>179.3869557635734</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>203.2507825193993</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35190,7 +35190,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>147.5918456237783</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>522.0635703700256</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>209.2450561298663</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
@@ -35427,7 +35427,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
         <v>324.4050573689818</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="P12" t="n">
-        <v>473.6101143363516</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533847</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L13" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M13" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N13" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P13" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978322</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M15" t="n">
-        <v>658.4691050734218</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533847</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L16" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M16" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N16" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P16" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978322</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>474.7429345933426</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>29.85810036629282</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533847</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L19" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M19" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N19" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P19" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978322</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P20" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
         <v>324.4050573689818</v>
@@ -36202,16 +36202,16 @@
         <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>423.670551254687</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533847</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K22" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L22" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M22" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N22" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O22" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P22" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978322</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>44.19067509569746</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36536,7 +36536,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>29.8958128361577</v>
+        <v>29.8958128361576</v>
       </c>
       <c r="K28" t="n">
-        <v>171.7844778028521</v>
+        <v>171.784477802852</v>
       </c>
       <c r="L28" t="n">
-        <v>278.1933389723699</v>
+        <v>278.1933389723698</v>
       </c>
       <c r="M28" t="n">
-        <v>307.856931053615</v>
+        <v>307.8569310536149</v>
       </c>
       <c r="N28" t="n">
-        <v>299.3465532291272</v>
+        <v>299.346553229127</v>
       </c>
       <c r="O28" t="n">
-        <v>277.8534501303634</v>
+        <v>277.8534501303633</v>
       </c>
       <c r="P28" t="n">
-        <v>223.4239854062606</v>
+        <v>223.4239854062605</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.86094455060245</v>
+        <v>81.86094455060237</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P29" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q29" t="n">
         <v>324.4050573689818</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M30" t="n">
-        <v>788.7133462788644</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>29.8958128361577</v>
+        <v>29.8958128361576</v>
       </c>
       <c r="K31" t="n">
-        <v>171.7844778028521</v>
+        <v>171.784477802852</v>
       </c>
       <c r="L31" t="n">
-        <v>278.1933389723699</v>
+        <v>278.1933389723698</v>
       </c>
       <c r="M31" t="n">
-        <v>307.856931053615</v>
+        <v>307.8569310536149</v>
       </c>
       <c r="N31" t="n">
-        <v>299.3465532291272</v>
+        <v>299.346553229127</v>
       </c>
       <c r="O31" t="n">
-        <v>277.8534501303634</v>
+        <v>277.8534501303633</v>
       </c>
       <c r="P31" t="n">
-        <v>223.4239854062606</v>
+        <v>223.4239854062605</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.86094455060245</v>
+        <v>81.86094455060237</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>29.89581283615771</v>
+        <v>29.8958128361576</v>
       </c>
       <c r="K34" t="n">
-        <v>171.7844778028521</v>
+        <v>171.784477802852</v>
       </c>
       <c r="L34" t="n">
-        <v>278.1933389723699</v>
+        <v>278.1933389723698</v>
       </c>
       <c r="M34" t="n">
-        <v>307.856931053615</v>
+        <v>307.8569310536149</v>
       </c>
       <c r="N34" t="n">
-        <v>299.3465532291272</v>
+        <v>299.346553229127</v>
       </c>
       <c r="O34" t="n">
-        <v>277.8534501303634</v>
+        <v>277.8534501303633</v>
       </c>
       <c r="P34" t="n">
-        <v>223.4239854062606</v>
+        <v>223.4239854062605</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.86094455060247</v>
+        <v>81.86094455060237</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>29.89581283615771</v>
+        <v>29.8958128361576</v>
       </c>
       <c r="K37" t="n">
-        <v>171.7844778028521</v>
+        <v>171.784477802852</v>
       </c>
       <c r="L37" t="n">
-        <v>278.1933389723699</v>
+        <v>278.1933389723698</v>
       </c>
       <c r="M37" t="n">
-        <v>307.856931053615</v>
+        <v>307.8569310536149</v>
       </c>
       <c r="N37" t="n">
-        <v>299.3465532291272</v>
+        <v>299.346553229127</v>
       </c>
       <c r="O37" t="n">
-        <v>277.8534501303634</v>
+        <v>277.8534501303633</v>
       </c>
       <c r="P37" t="n">
-        <v>223.4239854062606</v>
+        <v>223.4239854062605</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.86094455060247</v>
+        <v>81.86094455060237</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37554,7 +37554,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N38" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O38" t="n">
         <v>650.1321781990958</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M39" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>29.89581283615765</v>
+        <v>29.8958128361576</v>
       </c>
       <c r="K40" t="n">
-        <v>171.7844778028521</v>
+        <v>171.784477802852</v>
       </c>
       <c r="L40" t="n">
         <v>278.1933389723698</v>
       </c>
       <c r="M40" t="n">
-        <v>307.856931053615</v>
+        <v>307.8569310536149</v>
       </c>
       <c r="N40" t="n">
-        <v>299.3465532291271</v>
+        <v>299.346553229127</v>
       </c>
       <c r="O40" t="n">
         <v>277.8534501303633</v>
@@ -37721,7 +37721,7 @@
         <v>223.4239854062605</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.8609445506024</v>
+        <v>81.86094455060237</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>658.4691050734218</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,19 +38098,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>100.1504044654409</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
